--- a/gameData/server/Keywords.xlsx
+++ b/gameData/server/Keywords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-26240" yWindow="2800" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cn" sheetId="22" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="745">
   <si>
     <t>STR_world</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -2304,6 +2304,12 @@
   <si>
     <t>BBC</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dumbass</t>
+  </si>
+  <si>
+    <t>fucktard</t>
   </si>
 </sst>
 </file>
@@ -3637,7 +3643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q310"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A203" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A203" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A213" sqref="A213"/>
     </sheetView>
   </sheetViews>
@@ -5254,10 +5260,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q459"/>
+  <dimension ref="A1:Q461"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A445" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C456" sqref="C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7602,6 +7608,16 @@
     <row r="459" spans="1:1" ht="20" customHeight="1">
       <c r="A459" s="7" t="s">
         <v>706</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" ht="20" customHeight="1">
+      <c r="A460" s="7" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" ht="20" customHeight="1">
+      <c r="A461" s="7" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Keywords.xlsx
+++ b/gameData/server/Keywords.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="210" activeTab="1"/>
+    <workbookView xWindow="32840" yWindow="-200" windowWidth="25600" windowHeight="16060" tabRatio="210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cn" sheetId="22" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="749">
   <si>
     <t>STR_world</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -2310,6 +2310,18 @@
   </si>
   <si>
     <t>fucktard</t>
+  </si>
+  <si>
+    <t>Dicks</t>
+  </si>
+  <si>
+    <t>Masturbate</t>
+  </si>
+  <si>
+    <t>Hentai</t>
+  </si>
+  <si>
+    <t>Bullshit</t>
   </si>
 </sst>
 </file>
@@ -5260,10 +5272,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q461"/>
+  <dimension ref="A1:Q465"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A445" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C456" sqref="C456"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A459" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B465" sqref="B465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7618,6 +7630,26 @@
     <row r="461" spans="1:1" ht="20" customHeight="1">
       <c r="A461" s="7" t="s">
         <v>744</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" ht="20" customHeight="1">
+      <c r="A462" s="7" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" ht="20" customHeight="1">
+      <c r="A463" s="7" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" ht="20" customHeight="1">
+      <c r="A464" s="7" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" ht="20" customHeight="1">
+      <c r="A465" s="7" t="s">
+        <v>748</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Keywords.xlsx
+++ b/gameData/server/Keywords.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="32840" yWindow="-200" windowWidth="25600" windowHeight="16060" tabRatio="210" activeTab="1"/>
+    <workbookView xWindow="7400" yWindow="620" windowWidth="25200" windowHeight="15500" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="cn" sheetId="22" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="769">
   <si>
     <t>STR_world</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -2322,6 +2322,86 @@
   </si>
   <si>
     <t>Bullshit</t>
+  </si>
+  <si>
+    <t>不充钱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不花钱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不充值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不付费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费玩家</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没充钱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没花钱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没充值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没付费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>别充钱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>别花钱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>别充值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>别付费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retard</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fucked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orgy</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rape</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ho</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2496,7 +2576,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="342">
+  <cellStyleXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2511,6 +2591,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2864,14 +2972,197 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="342">
+  <cellStyles count="370">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
     <cellStyle name="Pourcentage" xfId="4"/>
     <cellStyle name="Standard_game" xfId="5"/>
+    <cellStyle name="표준_chapter_01" xfId="9"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="标题 1 1" xfId="6"/>
     <cellStyle name="标题 2 1" xfId="7"/>
+    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
@@ -3038,175 +3329,20 @@
     <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="解释性文本" xfId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_chapter_01" xfId="9"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3653,10 +3789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q310"/>
+  <dimension ref="A1:Q324"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A203" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A302" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B310" sqref="B310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5256,6 +5392,76 @@
     <row r="310" spans="1:1" ht="20" customHeight="1">
       <c r="A310" s="5" t="s">
         <v>306</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="20" customHeight="1">
+      <c r="A311" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="20" customHeight="1">
+      <c r="A312" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" ht="20" customHeight="1">
+      <c r="A313" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" ht="20" customHeight="1">
+      <c r="A314" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="20" customHeight="1">
+      <c r="A315" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" ht="20" customHeight="1">
+      <c r="A316" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" ht="20" customHeight="1">
+      <c r="A317" s="5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" ht="20" customHeight="1">
+      <c r="A318" s="5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" ht="20" customHeight="1">
+      <c r="A319" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="20" customHeight="1">
+      <c r="A320" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="20" customHeight="1">
+      <c r="A321" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="20" customHeight="1">
+      <c r="A322" s="5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" ht="20" customHeight="1">
+      <c r="A323" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" ht="20" customHeight="1">
+      <c r="A324" s="5" t="s">
+        <v>762</v>
       </c>
     </row>
   </sheetData>
@@ -5272,10 +5478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q465"/>
+  <dimension ref="A1:Q471"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A459" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B465" sqref="B465"/>
+    <sheetView showRuler="0" topLeftCell="A461" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A466" sqref="A466:A471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7650,6 +7856,36 @@
     <row r="465" spans="1:1" ht="20" customHeight="1">
       <c r="A465" s="7" t="s">
         <v>748</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" ht="20" customHeight="1">
+      <c r="A466" s="7" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" ht="20" customHeight="1">
+      <c r="A467" s="7" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" ht="20" customHeight="1">
+      <c r="A468" s="7" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" ht="20" customHeight="1">
+      <c r="A469" s="7" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" ht="20" customHeight="1">
+      <c r="A470" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" ht="20" customHeight="1">
+      <c r="A471" s="7" t="s">
+        <v>767</v>
       </c>
     </row>
   </sheetData>
